--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>CS2.5.1_Merc_Hotfix_70761_SPK08</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Trade</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +573,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -584,7 +587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -595,7 +598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -609,7 +612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,7 +623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -631,7 +634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -642,7 +645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -653,15 +656,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
